--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -58,13 +58,16 @@
     <t>bet_type_order</t>
   </si>
   <si>
-    <t>2023-08-12</t>
-  </si>
-  <si>
-    <t>2023-08-13</t>
-  </si>
-  <si>
-    <t>2023-08-14</t>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2023-08-20</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-08-19</t>
   </si>
   <si>
     <t xml:space="preserve">PREMIER LEAGUE </t>
@@ -79,88 +82,136 @@
     <t xml:space="preserve">SERIE A </t>
   </si>
   <si>
-    <t>Brighton and Hove Albion</t>
+    <t xml:space="preserve">BUNDESLIGA </t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Real Betis</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Sheffield Utd</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
   </si>
   <si>
     <t>Marseille</t>
   </si>
   <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Koln</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
     <t>Las Palmas</t>
   </si>
   <si>
-    <t>Atletico Mineiro</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Atletico Madrid</t>
-  </si>
-  <si>
-    <t>Sheffield Utd</t>
-  </si>
-  <si>
-    <t>Flamengo</t>
+    <t>Mainz 05</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Corinthians</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Granada CF</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Sao Paulo</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
-    <t>Girona</t>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
   </si>
   <si>
     <t>safest_bet</t>
   </si>
   <si>
     <t>safe_bet</t>
+  </si>
+  <si>
+    <t>risky_bet</t>
   </si>
 </sst>
 </file>
@@ -518,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,28 +621,28 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F2">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="G2">
-        <v>5.65</v>
+        <v>3.6</v>
       </c>
       <c r="H2">
-        <v>9.800000000000001</v>
+        <v>4.45</v>
       </c>
       <c r="I2">
         <v>0.18</v>
@@ -600,16 +651,16 @@
         <v>0.82</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="L2">
         <v>0.82</v>
       </c>
       <c r="M2">
-        <v>9.800000000000001</v>
+        <v>4.45</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -617,46 +668,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F3">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="G3">
-        <v>4.1</v>
+        <v>4.65</v>
       </c>
       <c r="H3">
-        <v>4.9</v>
+        <v>7.3</v>
       </c>
       <c r="I3">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="J3">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="M3">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -664,28 +715,28 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H4">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="I4">
         <v>0.18</v>
@@ -694,16 +745,16 @@
         <v>0.82</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L4">
         <v>0.82</v>
       </c>
       <c r="M4">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -711,46 +762,46 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F5">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="I5">
-        <v>0.83</v>
+        <v>0.19</v>
       </c>
       <c r="J5">
-        <v>0.17</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="L5">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M5">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -758,28 +809,28 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F6">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="G6">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H6">
-        <v>4.25</v>
+        <v>4.9</v>
       </c>
       <c r="I6">
         <v>0.18</v>
@@ -788,16 +839,16 @@
         <v>0.82</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L6">
         <v>0.82</v>
       </c>
       <c r="M6">
-        <v>4.25</v>
+        <v>4.9</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="O6">
         <v>3</v>
@@ -805,46 +856,46 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F7">
-        <v>1.57</v>
+        <v>3.95</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>1.82</v>
       </c>
       <c r="I7">
-        <v>0.93</v>
+        <v>0.18</v>
       </c>
       <c r="J7">
-        <v>0.07000000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="L7">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="M7">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -852,46 +903,46 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F8">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="G8">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="J8">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L8">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="M8">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="O8">
         <v>3</v>
@@ -902,25 +953,25 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>1.3</v>
+        <v>2.62</v>
       </c>
       <c r="G9">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>2.75</v>
       </c>
       <c r="I9">
         <v>0.18</v>
@@ -929,16 +980,16 @@
         <v>0.82</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="L9">
         <v>0.82</v>
       </c>
       <c r="M9">
-        <v>11</v>
+        <v>2.75</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="O9">
         <v>3</v>
@@ -946,28 +997,28 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F10">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="G10">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H10">
-        <v>2.48</v>
+        <v>2.05</v>
       </c>
       <c r="I10">
         <v>0.18</v>
@@ -976,16 +1027,16 @@
         <v>0.82</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="L10">
         <v>0.82</v>
       </c>
       <c r="M10">
-        <v>2.48</v>
+        <v>2.05</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -993,190 +1044,519 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F11">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="G11">
-        <v>3.5</v>
+        <v>4.05</v>
       </c>
       <c r="H11">
-        <v>4.5</v>
+        <v>5.35</v>
       </c>
       <c r="I11">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="J11">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L11">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F12">
-        <v>1.41</v>
+        <v>1.8</v>
       </c>
       <c r="G12">
-        <v>4.65</v>
+        <v>3.5</v>
       </c>
       <c r="H12">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>0.22</v>
+        <v>0.85</v>
       </c>
       <c r="J12">
-        <v>0.78</v>
+        <v>0.15</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L12">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="M12">
-        <v>7.8</v>
+        <v>1.8</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F13">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="G13">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H13">
-        <v>4.75</v>
+        <v>2.22</v>
       </c>
       <c r="I13">
-        <v>0.79</v>
+        <v>0.18</v>
       </c>
       <c r="J13">
-        <v>0.21</v>
+        <v>0.82</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="L13">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="M13">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <v>1.42</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>7.5</v>
+      </c>
+      <c r="I14">
+        <v>0.82</v>
+      </c>
+      <c r="J14">
+        <v>0.18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14">
+        <v>0.82</v>
+      </c>
+      <c r="M14">
+        <v>1.42</v>
+      </c>
+      <c r="N14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <v>1.65</v>
+      </c>
+      <c r="G15">
+        <v>4.35</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>0.18</v>
+      </c>
+      <c r="J15">
+        <v>0.82</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15">
+        <v>0.82</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <v>1.78</v>
+      </c>
+      <c r="G16">
+        <v>3.6</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>0.2</v>
+      </c>
+      <c r="J16">
+        <v>0.8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16">
+        <v>0.8</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>3.5</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>0.76</v>
+      </c>
+      <c r="J17">
+        <v>0.24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17">
+        <v>0.76</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14">
-        <v>1.63</v>
-      </c>
-      <c r="G14">
-        <v>4.2</v>
-      </c>
-      <c r="H14">
-        <v>5.5</v>
-      </c>
-      <c r="I14">
-        <v>0.76</v>
-      </c>
-      <c r="J14">
-        <v>0.24</v>
-      </c>
-      <c r="K14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14">
-        <v>0.76</v>
-      </c>
-      <c r="M14">
-        <v>1.63</v>
-      </c>
-      <c r="N14" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14">
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18">
+        <v>1.8</v>
+      </c>
+      <c r="G18">
+        <v>3.9</v>
+      </c>
+      <c r="H18">
+        <v>4.1</v>
+      </c>
+      <c r="I18">
+        <v>0.77</v>
+      </c>
+      <c r="J18">
+        <v>0.23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18">
+        <v>0.77</v>
+      </c>
+      <c r="M18">
+        <v>1.8</v>
+      </c>
+      <c r="N18" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18">
         <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>2.35</v>
+      </c>
+      <c r="G19">
+        <v>3.7</v>
+      </c>
+      <c r="H19">
+        <v>2.8</v>
+      </c>
+      <c r="I19">
+        <v>0.7</v>
+      </c>
+      <c r="J19">
+        <v>0.3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19">
+        <v>0.7</v>
+      </c>
+      <c r="M19">
+        <v>2.35</v>
+      </c>
+      <c r="N19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20">
+        <v>2.4</v>
+      </c>
+      <c r="G20">
+        <v>3.25</v>
+      </c>
+      <c r="H20">
+        <v>3.05</v>
+      </c>
+      <c r="I20">
+        <v>0.72</v>
+      </c>
+      <c r="J20">
+        <v>0.28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20">
+        <v>0.72</v>
+      </c>
+      <c r="M20">
+        <v>2.4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21">
+        <v>2.05</v>
+      </c>
+      <c r="G21">
+        <v>3.3</v>
+      </c>
+      <c r="H21">
+        <v>3.75</v>
+      </c>
+      <c r="I21">
+        <v>0.73</v>
+      </c>
+      <c r="J21">
+        <v>0.27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21">
+        <v>0.73</v>
+      </c>
+      <c r="M21">
+        <v>2.05</v>
+      </c>
+      <c r="N21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -58,16 +58,16 @@
     <t>bet_type_order</t>
   </si>
   <si>
-    <t>2023-08-18</t>
+    <t>2023-08-19</t>
   </si>
   <si>
     <t>2023-08-20</t>
   </si>
   <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
-    <t>2023-08-19</t>
+    <t xml:space="preserve">BUNDESLIGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LALIGA </t>
   </si>
   <si>
     <t xml:space="preserve">PREMIER LEAGUE </t>
@@ -76,133 +76,61 @@
     <t xml:space="preserve">LIGUE 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">LALIGA </t>
-  </si>
-  <si>
     <t xml:space="preserve">SERIE A </t>
   </si>
   <si>
-    <t xml:space="preserve">BUNDESLIGA </t>
-  </si>
-  <si>
-    <t>Nottingham Forest</t>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Granada CF</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Eintracht Frankfurt</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Real Betis</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Valencia</t>
+    <t>Monaco</t>
   </si>
   <si>
     <t>Union Berlin</t>
   </si>
   <si>
-    <t>Monaco</t>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Empoli</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Internacional</t>
-  </si>
-  <si>
-    <t>Sheffield Utd</t>
+    <t>Koln</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Everton</t>
   </si>
   <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Atletico Madrid</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Celta Vigo</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Koln</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
+    <t>Strasbourg</t>
   </si>
   <si>
     <t>Mainz 05</t>
   </si>
   <si>
-    <t>Strasbourg</t>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
   </si>
   <si>
     <t>Rennes</t>
-  </si>
-  <si>
-    <t>Hellas Verona</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -569,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,46 +549,46 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="G2">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>4.45</v>
+        <v>7.5</v>
       </c>
       <c r="I2">
+        <v>0.82</v>
+      </c>
+      <c r="J2">
         <v>0.18</v>
       </c>
-      <c r="J2">
-        <v>0.82</v>
-      </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>0.82</v>
       </c>
       <c r="M2">
-        <v>4.45</v>
+        <v>1.42</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -668,46 +596,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="G3">
-        <v>4.65</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="J3">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="M3">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -715,46 +643,46 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>2.65</v>
+        <v>1.68</v>
       </c>
       <c r="G4">
-        <v>3.2</v>
+        <v>4.05</v>
       </c>
       <c r="H4">
-        <v>2.85</v>
+        <v>5.35</v>
       </c>
       <c r="I4">
-        <v>0.18</v>
+        <v>0.83</v>
       </c>
       <c r="J4">
-        <v>0.82</v>
+        <v>0.17</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="L4">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="M4">
-        <v>2.85</v>
+        <v>1.68</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -762,46 +690,46 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>3.3</v>
+        <v>1.42</v>
       </c>
       <c r="G5">
-        <v>3.1</v>
+        <v>4.65</v>
       </c>
       <c r="H5">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="I5">
-        <v>0.19</v>
+        <v>0.92</v>
       </c>
       <c r="J5">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="L5">
-        <v>0.8100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="M5">
-        <v>2.4</v>
+        <v>1.42</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -809,753 +737,236 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="G6">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H6">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="I6">
-        <v>0.18</v>
+        <v>0.77</v>
       </c>
       <c r="J6">
-        <v>0.82</v>
+        <v>0.23</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="L6">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="M6">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>3.95</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="H7">
-        <v>1.82</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>0.18</v>
+        <v>0.76</v>
       </c>
       <c r="J7">
-        <v>0.82</v>
+        <v>0.24</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="L7">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="M7">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="I8">
-        <v>0.18</v>
+        <v>0.73</v>
       </c>
       <c r="J8">
-        <v>0.82</v>
+        <v>0.27</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="L8">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>2.05</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
       <c r="F9">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="G9">
         <v>3.25</v>
       </c>
       <c r="H9">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="I9">
-        <v>0.18</v>
+        <v>0.72</v>
       </c>
       <c r="J9">
-        <v>0.82</v>
+        <v>0.28</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="L9">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
       <c r="M9">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H10">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="I10">
-        <v>0.18</v>
+        <v>0.7</v>
       </c>
       <c r="J10">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="L10">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="M10">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="O10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11">
-        <v>1.68</v>
-      </c>
-      <c r="G11">
-        <v>4.05</v>
-      </c>
-      <c r="H11">
-        <v>5.35</v>
-      </c>
-      <c r="I11">
-        <v>0.83</v>
-      </c>
-      <c r="J11">
-        <v>0.17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11">
-        <v>0.83</v>
-      </c>
-      <c r="M11">
-        <v>1.68</v>
-      </c>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12">
-        <v>1.8</v>
-      </c>
-      <c r="G12">
-        <v>3.5</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>0.85</v>
-      </c>
-      <c r="J12">
-        <v>0.15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12">
-        <v>0.85</v>
-      </c>
-      <c r="M12">
-        <v>1.8</v>
-      </c>
-      <c r="N12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13">
-        <v>3.25</v>
-      </c>
-      <c r="G13">
-        <v>3.35</v>
-      </c>
-      <c r="H13">
-        <v>2.22</v>
-      </c>
-      <c r="I13">
-        <v>0.18</v>
-      </c>
-      <c r="J13">
-        <v>0.82</v>
-      </c>
-      <c r="K13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13">
-        <v>0.82</v>
-      </c>
-      <c r="M13">
-        <v>2.22</v>
-      </c>
-      <c r="N13" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14">
-        <v>1.42</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>7.5</v>
-      </c>
-      <c r="I14">
-        <v>0.82</v>
-      </c>
-      <c r="J14">
-        <v>0.18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14">
-        <v>0.82</v>
-      </c>
-      <c r="M14">
-        <v>1.42</v>
-      </c>
-      <c r="N14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15">
-        <v>1.65</v>
-      </c>
-      <c r="G15">
-        <v>4.35</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>0.18</v>
-      </c>
-      <c r="J15">
-        <v>0.82</v>
-      </c>
-      <c r="K15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15">
-        <v>0.82</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16">
-        <v>1.78</v>
-      </c>
-      <c r="G16">
-        <v>3.6</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>0.2</v>
-      </c>
-      <c r="J16">
-        <v>0.8</v>
-      </c>
-      <c r="K16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16">
-        <v>0.8</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>3.5</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>0.76</v>
-      </c>
-      <c r="J17">
-        <v>0.24</v>
-      </c>
-      <c r="K17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17">
-        <v>0.76</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>64</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18">
-        <v>1.8</v>
-      </c>
-      <c r="G18">
-        <v>3.9</v>
-      </c>
-      <c r="H18">
-        <v>4.1</v>
-      </c>
-      <c r="I18">
-        <v>0.77</v>
-      </c>
-      <c r="J18">
-        <v>0.23</v>
-      </c>
-      <c r="K18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18">
-        <v>0.77</v>
-      </c>
-      <c r="M18">
-        <v>1.8</v>
-      </c>
-      <c r="N18" t="s">
-        <v>64</v>
-      </c>
-      <c r="O18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19">
-        <v>2.35</v>
-      </c>
-      <c r="G19">
-        <v>3.7</v>
-      </c>
-      <c r="H19">
-        <v>2.8</v>
-      </c>
-      <c r="I19">
-        <v>0.7</v>
-      </c>
-      <c r="J19">
-        <v>0.3</v>
-      </c>
-      <c r="K19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19">
-        <v>0.7</v>
-      </c>
-      <c r="M19">
-        <v>2.35</v>
-      </c>
-      <c r="N19" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20">
-        <v>2.4</v>
-      </c>
-      <c r="G20">
-        <v>3.25</v>
-      </c>
-      <c r="H20">
-        <v>3.05</v>
-      </c>
-      <c r="I20">
-        <v>0.72</v>
-      </c>
-      <c r="J20">
-        <v>0.28</v>
-      </c>
-      <c r="K20" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20">
-        <v>0.72</v>
-      </c>
-      <c r="M20">
-        <v>2.4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21">
-        <v>2.05</v>
-      </c>
-      <c r="G21">
-        <v>3.3</v>
-      </c>
-      <c r="H21">
-        <v>3.75</v>
-      </c>
-      <c r="I21">
-        <v>0.73</v>
-      </c>
-      <c r="J21">
-        <v>0.27</v>
-      </c>
-      <c r="K21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21">
-        <v>0.73</v>
-      </c>
-      <c r="M21">
-        <v>2.05</v>
-      </c>
-      <c r="N21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O21">
         <v>1</v>
       </c>
     </row>

--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -58,79 +58,61 @@
     <t>bet_type_order</t>
   </si>
   <si>
-    <t>2023-08-19</t>
-  </si>
-  <si>
-    <t>2023-08-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUNDESLIGA </t>
+    <t>2023-09-02</t>
+  </si>
+  <si>
+    <t>2023-09-03</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMIER LEAGUE </t>
   </si>
   <si>
     <t xml:space="preserve">LALIGA </t>
   </si>
   <si>
-    <t xml:space="preserve">PREMIER LEAGUE </t>
-  </si>
-  <si>
     <t xml:space="preserve">LIGUE 1 </t>
   </si>
   <si>
     <t xml:space="preserve">SERIE A </t>
   </si>
   <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Internacional</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Koln</t>
-  </si>
-  <si>
-    <t>Celta Vigo</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Nantes</t>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Mainz 05</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
     <t>Hellas Verona</t>
   </si>
   <si>
-    <t>Rennes</t>
+    <t>Genoa</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -497,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,28 +531,28 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>4.35</v>
       </c>
       <c r="H2">
-        <v>7.5</v>
+        <v>5.15</v>
       </c>
       <c r="I2">
         <v>0.82</v>
@@ -585,10 +567,10 @@
         <v>0.82</v>
       </c>
       <c r="M2">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -596,46 +578,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="G3">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I3">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="J3">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
       </c>
       <c r="L3">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="M3">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -643,54 +625,54 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="G4">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="H4">
-        <v>5.35</v>
+        <v>4.2</v>
       </c>
       <c r="I4">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="J4">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
       </c>
       <c r="L4">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="M4">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -702,271 +684,130 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>1.42</v>
+        <v>1.95</v>
       </c>
       <c r="G5">
-        <v>4.65</v>
+        <v>3.7</v>
       </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>3.7</v>
       </c>
       <c r="I5">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="J5">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="K5" t="s">
         <v>24</v>
       </c>
       <c r="L5">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="M5">
-        <v>1.42</v>
+        <v>1.95</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="G6">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H6">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I6">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="J6">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
       </c>
       <c r="L6">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="M6">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G7">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I7">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="J7">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
       </c>
       <c r="L7">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8">
-        <v>2.05</v>
-      </c>
-      <c r="G8">
-        <v>3.3</v>
-      </c>
-      <c r="H8">
-        <v>3.75</v>
-      </c>
-      <c r="I8">
-        <v>0.73</v>
-      </c>
-      <c r="J8">
-        <v>0.27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8">
-        <v>0.73</v>
-      </c>
-      <c r="M8">
-        <v>2.05</v>
-      </c>
-      <c r="N8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9">
-        <v>2.4</v>
-      </c>
-      <c r="G9">
-        <v>3.25</v>
-      </c>
-      <c r="H9">
-        <v>3.05</v>
-      </c>
-      <c r="I9">
-        <v>0.72</v>
-      </c>
-      <c r="J9">
-        <v>0.28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9">
-        <v>0.72</v>
-      </c>
-      <c r="M9">
-        <v>2.4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>2.38</v>
-      </c>
-      <c r="G10">
-        <v>3.7</v>
-      </c>
-      <c r="H10">
-        <v>2.78</v>
-      </c>
-      <c r="I10">
-        <v>0.7</v>
-      </c>
-      <c r="J10">
-        <v>0.3</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10">
-        <v>0.7</v>
-      </c>
-      <c r="M10">
-        <v>2.38</v>
-      </c>
-      <c r="N10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10">
         <v>1</v>
       </c>
     </row>

--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -58,13 +58,28 @@
     <t>bet_type_order</t>
   </si>
   <si>
-    <t>2023-09-02</t>
-  </si>
-  <si>
-    <t>2023-09-03</t>
-  </si>
-  <si>
-    <t>2023-09-01</t>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>2023-09-17</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGUE 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGA PORTUGAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERIE A </t>
   </si>
   <si>
     <t xml:space="preserve">PREMIER LEAGUE </t>
@@ -73,46 +88,64 @@
     <t xml:space="preserve">LALIGA </t>
   </si>
   <si>
-    <t xml:space="preserve">LIGUE 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERIE A </t>
-  </si>
-  <si>
-    <t>Brentford</t>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Clermont Foot</t>
+  </si>
+  <si>
+    <t>Vitoria Guimaraes</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>America MG</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Gremio</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
   </si>
   <si>
     <t>Atletico Madrid</t>
   </si>
   <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Hellas Verona</t>
-  </si>
-  <si>
-    <t>Genoa</t>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Bragantino</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -479,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,46 +564,46 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="G2">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="H2">
-        <v>5.15</v>
+        <v>5.9</v>
       </c>
       <c r="I2">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J2">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L2">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M2">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -578,46 +611,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="G3">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="H3">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="I3">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J3">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L3">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M3">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -625,189 +658,377 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="G4">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="H4">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="J4">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L4">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="M4">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="G5">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H5">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="I5">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="J5">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L5">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="M5">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F6">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="G6">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H6">
-        <v>3.7</v>
+        <v>4.65</v>
       </c>
       <c r="I6">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="J6">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L6">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="M6">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>2.55</v>
+      </c>
+      <c r="G7">
+        <v>3.1</v>
+      </c>
+      <c r="H7">
+        <v>2.9</v>
+      </c>
+      <c r="I7">
+        <v>0.71</v>
+      </c>
+      <c r="J7">
+        <v>0.29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7">
+        <v>0.71</v>
+      </c>
+      <c r="M7">
+        <v>2.55</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>1.92</v>
+      </c>
+      <c r="G8">
+        <v>3.75</v>
+      </c>
+      <c r="H8">
+        <v>4.05</v>
+      </c>
+      <c r="I8">
+        <v>0.72</v>
+      </c>
+      <c r="J8">
+        <v>0.28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <v>0.72</v>
+      </c>
+      <c r="M8">
+        <v>1.92</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>3.6</v>
+      </c>
+      <c r="G9">
+        <v>3.5</v>
+      </c>
+      <c r="H9">
+        <v>2.1</v>
+      </c>
+      <c r="I9">
+        <v>0.3</v>
+      </c>
+      <c r="J9">
+        <v>0.7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9">
+        <v>0.7</v>
+      </c>
+      <c r="M9">
+        <v>2.1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="F7">
-        <v>1.98</v>
-      </c>
-      <c r="G7">
-        <v>3.35</v>
-      </c>
-      <c r="H7">
-        <v>3.95</v>
-      </c>
-      <c r="I7">
-        <v>0.72</v>
-      </c>
-      <c r="J7">
-        <v>0.28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7">
-        <v>0.72</v>
-      </c>
-      <c r="M7">
-        <v>1.98</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7">
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>2.08</v>
+      </c>
+      <c r="G10">
+        <v>3.45</v>
+      </c>
+      <c r="H10">
+        <v>3.55</v>
+      </c>
+      <c r="I10">
+        <v>0.71</v>
+      </c>
+      <c r="J10">
+        <v>0.29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10">
+        <v>0.71</v>
+      </c>
+      <c r="M10">
+        <v>2.08</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>2.8</v>
+      </c>
+      <c r="G11">
+        <v>3.3</v>
+      </c>
+      <c r="H11">
+        <v>2.5</v>
+      </c>
+      <c r="I11">
+        <v>0.73</v>
+      </c>
+      <c r="J11">
+        <v>0.27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11">
+        <v>0.73</v>
+      </c>
+      <c r="M11">
+        <v>2.8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11">
         <v>1</v>
       </c>
     </row>

--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -58,103 +58,94 @@
     <t>bet_type_order</t>
   </si>
   <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
     <t>2023-09-16</t>
   </si>
   <si>
     <t>2023-09-17</t>
   </si>
   <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-09-14</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
+    <t xml:space="preserve">SERIE A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGA PORTUGAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMIER LEAGUE </t>
   </si>
   <si>
     <t xml:space="preserve">LIGUE 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">LIGA PORTUGAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERIE A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREMIER LEAGUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LALIGA </t>
+    <t xml:space="preserve">BUNDESLIGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EREDIVISIE </t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Estrela</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Clermont Foot</t>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>Everton</t>
   </si>
   <si>
     <t>Vitoria Guimaraes</t>
   </si>
   <si>
-    <t>Corinthians</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>America MG</t>
+    <t>Sporting CP</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
   </si>
   <si>
     <t>Metz</t>
   </si>
   <si>
-    <t>Nantes</t>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
   </si>
   <si>
     <t>Portimonense</t>
   </si>
   <si>
-    <t>Gremio</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Atletico Madrid</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Bragantino</t>
+    <t>Moreirense</t>
   </si>
   <si>
     <t>safest_bet</t>
-  </si>
-  <si>
-    <t>safe_bet</t>
-  </si>
-  <si>
-    <t>risky_bet</t>
   </si>
 </sst>
 </file>
@@ -564,46 +555,46 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="G2">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="H2">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="J2">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="M2">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -611,46 +602,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>1.98</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>3.7</v>
+        <v>1.36</v>
       </c>
       <c r="I3">
-        <v>0.8100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="J3">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L3">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="M3">
-        <v>1.98</v>
+        <v>1.36</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -658,46 +649,46 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>1.53</v>
+        <v>6.7</v>
       </c>
       <c r="G4">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>1.48</v>
       </c>
       <c r="I4">
-        <v>0.85</v>
+        <v>0.32</v>
       </c>
       <c r="J4">
-        <v>0.15</v>
+        <v>0.68</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L4">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="M4">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -705,46 +696,46 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>2.55</v>
+        <v>1.52</v>
       </c>
       <c r="G5">
-        <v>3.2</v>
+        <v>4.45</v>
       </c>
       <c r="H5">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="I5">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J5">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M5">
-        <v>2.55</v>
+        <v>1.52</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -752,284 +743,284 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="G6">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>4.65</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="J6">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="M6">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>2.55</v>
+        <v>1.24</v>
       </c>
       <c r="G7">
-        <v>3.1</v>
+        <v>6.4</v>
       </c>
       <c r="H7">
-        <v>2.9</v>
+        <v>11.5</v>
       </c>
       <c r="I7">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="J7">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="M7">
-        <v>2.55</v>
+        <v>1.24</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>1.92</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="H8">
-        <v>4.05</v>
+        <v>1.33</v>
       </c>
       <c r="I8">
-        <v>0.72</v>
+        <v>0.31</v>
       </c>
       <c r="J8">
-        <v>0.28</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L8">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M8">
-        <v>1.92</v>
+        <v>1.33</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>6.3</v>
+      </c>
+      <c r="G9">
+        <v>4.7</v>
+      </c>
+      <c r="H9">
+        <v>1.52</v>
+      </c>
+      <c r="I9">
+        <v>0.29</v>
+      </c>
+      <c r="J9">
+        <v>0.71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>0.71</v>
+      </c>
+      <c r="M9">
+        <v>1.52</v>
+      </c>
+      <c r="N9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9">
-        <v>3.6</v>
-      </c>
-      <c r="G9">
-        <v>3.5</v>
-      </c>
-      <c r="H9">
-        <v>2.1</v>
-      </c>
-      <c r="I9">
-        <v>0.3</v>
-      </c>
-      <c r="J9">
-        <v>0.7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9">
-        <v>0.7</v>
-      </c>
-      <c r="M9">
-        <v>2.1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>46</v>
-      </c>
       <c r="O9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="G10">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="H10">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="J10">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="M10">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>1.22</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>0.87</v>
+      </c>
+      <c r="J11">
+        <v>0.13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11">
+        <v>0.87</v>
+      </c>
+      <c r="M11">
+        <v>1.22</v>
+      </c>
+      <c r="N11" t="s">
         <v>43</v>
       </c>
-      <c r="F11">
-        <v>2.8</v>
-      </c>
-      <c r="G11">
-        <v>3.3</v>
-      </c>
-      <c r="H11">
-        <v>2.5</v>
-      </c>
-      <c r="I11">
-        <v>0.73</v>
-      </c>
-      <c r="J11">
-        <v>0.27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11">
-        <v>0.73</v>
-      </c>
-      <c r="M11">
-        <v>2.8</v>
-      </c>
-      <c r="N11" t="s">
-        <v>46</v>
-      </c>
       <c r="O11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -58,91 +58,157 @@
     <t>bet_type_order</t>
   </si>
   <si>
-    <t>2023-09-15</t>
-  </si>
-  <si>
-    <t>2023-09-16</t>
-  </si>
-  <si>
-    <t>2023-09-17</t>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>2023-09-23</t>
+  </si>
+  <si>
+    <t>2023-09-24</t>
+  </si>
+  <si>
+    <t>2023-09-25</t>
   </si>
   <si>
     <t xml:space="preserve">SERIE A </t>
   </si>
   <si>
+    <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LALIGA </t>
+  </si>
+  <si>
     <t xml:space="preserve">LIGA PORTUGAL </t>
   </si>
   <si>
+    <t xml:space="preserve">EREDIVISIE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGUE 1 </t>
+  </si>
+  <si>
     <t xml:space="preserve">PREMIER LEAGUE </t>
   </si>
   <si>
-    <t xml:space="preserve">LIGUE 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUNDESLIGA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EREDIVISIE </t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Estrela</t>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Braga</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Brighton and Hove Albion</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Almere City</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Atletico Mineiro</t>
+  </si>
+  <si>
+    <t>Sporting CP</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>RWD Molenbeek</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Internazionale</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>West Ham United</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Vitoria Guimaraes</t>
-  </si>
-  <si>
-    <t>Sporting CP</t>
-  </si>
-  <si>
-    <t>Goias</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Eupen</t>
+  </si>
+  <si>
+    <t>Sint Truiden</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Gil Vicente FC</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Rio Ave</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -503,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,46 +621,46 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="G2">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="I2">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="J2">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="M2">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -602,46 +668,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>1.35</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3">
-        <v>1.36</v>
+        <v>8.5</v>
       </c>
       <c r="I3">
-        <v>0.3</v>
+        <v>0.88</v>
       </c>
       <c r="J3">
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="L3">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="M3">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -649,46 +715,46 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F4">
-        <v>6.7</v>
+        <v>1.58</v>
       </c>
       <c r="G4">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="H4">
-        <v>1.48</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>0.32</v>
+        <v>0.88</v>
       </c>
       <c r="J4">
-        <v>0.68</v>
+        <v>0.12</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="L4">
-        <v>0.68</v>
+        <v>0.88</v>
       </c>
       <c r="M4">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -696,46 +762,46 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F5">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G5">
-        <v>4.45</v>
+        <v>4.33</v>
       </c>
       <c r="H5">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J5">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M5">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -743,46 +809,46 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F6">
-        <v>1.24</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>1.25</v>
       </c>
       <c r="I6">
-        <v>0.9</v>
+        <v>0.26</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.74</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="L6">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="M6">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="O6">
         <v>3</v>
@@ -790,46 +856,46 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>1.24</v>
+        <v>5.4</v>
       </c>
       <c r="G7">
-        <v>6.4</v>
+        <v>4.65</v>
       </c>
       <c r="H7">
-        <v>11.5</v>
+        <v>1.52</v>
       </c>
       <c r="I7">
-        <v>0.84</v>
+        <v>0.2</v>
       </c>
       <c r="J7">
-        <v>0.16</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="L7">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="M7">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="N7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -837,46 +903,46 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>1.33</v>
       </c>
       <c r="G8">
-        <v>5.5</v>
+        <v>5.35</v>
       </c>
       <c r="H8">
-        <v>1.33</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I8">
-        <v>0.31</v>
+        <v>0.93</v>
       </c>
       <c r="J8">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L8">
-        <v>0.6899999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="M8">
         <v>1.33</v>
       </c>
       <c r="N8" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="O8">
         <v>3</v>
@@ -884,46 +950,46 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F9">
-        <v>6.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G9">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="H9">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="I9">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="J9">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L9">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="M9">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="O9">
         <v>3</v>
@@ -931,28 +997,28 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F10">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="G10">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>4.65</v>
       </c>
       <c r="I10">
         <v>0.85</v>
@@ -961,16 +1027,16 @@
         <v>0.15</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L10">
         <v>0.85</v>
       </c>
       <c r="M10">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="N10" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -978,48 +1044,518 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <v>1.43</v>
+      </c>
+      <c r="G11">
+        <v>5.25</v>
+      </c>
+      <c r="H11">
+        <v>7.1</v>
+      </c>
+      <c r="I11">
+        <v>0.82</v>
+      </c>
+      <c r="J11">
+        <v>0.18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11">
+        <v>0.82</v>
+      </c>
+      <c r="M11">
+        <v>1.43</v>
+      </c>
+      <c r="N11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>1.36</v>
+      </c>
+      <c r="G12">
+        <v>5.8</v>
+      </c>
+      <c r="H12">
+        <v>8.1</v>
+      </c>
+      <c r="I12">
+        <v>0.83</v>
+      </c>
+      <c r="J12">
+        <v>0.17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12">
+        <v>0.83</v>
+      </c>
+      <c r="M12">
+        <v>1.36</v>
+      </c>
+      <c r="N12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>1.28</v>
+      </c>
+      <c r="G13">
+        <v>5.5</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>0.86</v>
+      </c>
+      <c r="J13">
+        <v>0.14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13">
+        <v>0.86</v>
+      </c>
+      <c r="M13">
+        <v>1.28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14">
+        <v>1.63</v>
+      </c>
+      <c r="G14">
+        <v>4.2</v>
+      </c>
+      <c r="H14">
+        <v>4.75</v>
+      </c>
+      <c r="I14">
+        <v>0.8</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14">
+        <v>0.8</v>
+      </c>
+      <c r="M14">
+        <v>1.63</v>
+      </c>
+      <c r="N14" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15">
+        <v>1.35</v>
+      </c>
+      <c r="G15">
+        <v>5.5</v>
+      </c>
+      <c r="H15">
+        <v>8.5</v>
+      </c>
+      <c r="I15">
+        <v>0.9</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>0.9</v>
+      </c>
+      <c r="M15">
+        <v>1.35</v>
+      </c>
+      <c r="N15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16">
+        <v>1.25</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="I16">
+        <v>0.95</v>
+      </c>
+      <c r="J16">
+        <v>0.05</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16">
+        <v>0.95</v>
+      </c>
+      <c r="M16">
+        <v>1.25</v>
+      </c>
+      <c r="N16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>6.4</v>
+      </c>
+      <c r="H17">
+        <v>1.23</v>
+      </c>
+      <c r="I17">
+        <v>0.24</v>
+      </c>
+      <c r="J17">
+        <v>0.76</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17">
+        <v>0.76</v>
+      </c>
+      <c r="M17">
+        <v>1.23</v>
+      </c>
+      <c r="N17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18">
+        <v>1.85</v>
+      </c>
+      <c r="G18">
+        <v>3.7</v>
+      </c>
+      <c r="H18">
+        <v>4.1</v>
+      </c>
+      <c r="I18">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J18">
+        <v>0.19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M18">
+        <v>1.85</v>
+      </c>
+      <c r="N18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
         <v>42</v>
       </c>
-      <c r="F11">
-        <v>1.22</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <v>13</v>
-      </c>
-      <c r="I11">
-        <v>0.87</v>
-      </c>
-      <c r="J11">
-        <v>0.13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11">
-        <v>0.87</v>
-      </c>
-      <c r="M11">
-        <v>1.22</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19">
+        <v>1.37</v>
+      </c>
+      <c r="G19">
+        <v>4.95</v>
+      </c>
+      <c r="H19">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.93</v>
+      </c>
+      <c r="J19">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19">
+        <v>0.93</v>
+      </c>
+      <c r="M19">
+        <v>1.37</v>
+      </c>
+      <c r="N19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="O11">
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20">
+        <v>1.57</v>
+      </c>
+      <c r="G20">
+        <v>3.75</v>
+      </c>
+      <c r="H20">
+        <v>6.5</v>
+      </c>
+      <c r="I20">
+        <v>0.83</v>
+      </c>
+      <c r="J20">
+        <v>0.17</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20">
+        <v>0.83</v>
+      </c>
+      <c r="M20">
+        <v>1.57</v>
+      </c>
+      <c r="N20" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21">
+        <v>1.2</v>
+      </c>
+      <c r="G21">
+        <v>6.5</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>0.9</v>
+      </c>
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21">
+        <v>0.9</v>
+      </c>
+      <c r="M21">
+        <v>1.2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21">
         <v>3</v>
       </c>
     </row>

--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -58,157 +58,172 @@
     <t>bet_type_order</t>
   </si>
   <si>
-    <t>2023-09-20</t>
-  </si>
-  <si>
-    <t>2023-09-23</t>
-  </si>
-  <si>
-    <t>2023-09-24</t>
-  </si>
-  <si>
-    <t>2023-09-25</t>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
   </si>
   <si>
     <t xml:space="preserve">SERIE A </t>
   </si>
   <si>
+    <t xml:space="preserve">EREDIVISIE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUNDESLIGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGUE 1 </t>
+  </si>
+  <si>
     <t xml:space="preserve">JUPILER PRO LEAGUE </t>
   </si>
   <si>
+    <t xml:space="preserve">LIGA PORTUGAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMIER LEAGUE </t>
+  </si>
+  <si>
     <t xml:space="preserve">LALIGA </t>
   </si>
   <si>
-    <t xml:space="preserve">LIGA PORTUGAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EREDIVISIE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGUE 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREMIER LEAGUE </t>
-  </si>
-  <si>
-    <t>Fluminense</t>
-  </si>
-  <si>
-    <t>Antwerp</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>Braga</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Internazionale</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>RWD Molenbeek</t>
+  </si>
+  <si>
+    <t>Union SG</t>
+  </si>
+  <si>
+    <t>Farense</t>
   </si>
   <si>
     <t>RKC Waalwijk</t>
   </si>
   <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Brighton and Hove Albion</t>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Fortuna Sittard</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Nantes</t>
   </si>
   <si>
     <t>Gent</t>
   </si>
   <si>
-    <t>Genk</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Almere City</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Atletico Mineiro</t>
+    <t>Charleroi</t>
   </si>
   <si>
     <t>Sporting CP</t>
   </si>
   <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
-    <t>RWD Molenbeek</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Internazionale</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>West Ham United</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Eupen</t>
-  </si>
-  <si>
-    <t>Sint Truiden</t>
-  </si>
-  <si>
-    <t>Celta Vigo</t>
-  </si>
-  <si>
-    <t>Gil Vicente FC</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Hellas Verona</t>
-  </si>
-  <si>
-    <t>Cuiaba</t>
-  </si>
-  <si>
-    <t>Rio Ave</t>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Heracles Almelo</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -569,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,40 +642,40 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="G2">
-        <v>3.6</v>
+        <v>4.15</v>
       </c>
       <c r="H2">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="I2">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="J2">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L2">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="M2">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -668,46 +683,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>5.45</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="I3">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="J3">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L3">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="M3">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -715,46 +730,46 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F4">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="G4">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="I4">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="J4">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L4">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="M4">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -762,46 +777,46 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F5">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="G5">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="I5">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J5">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L5">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="M5">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -809,46 +824,46 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>1.72</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="H6">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="I6">
-        <v>0.26</v>
+        <v>0.89</v>
       </c>
       <c r="J6">
-        <v>0.74</v>
+        <v>0.11</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L6">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="M6">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O6">
         <v>3</v>
@@ -856,46 +871,46 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F7">
-        <v>5.4</v>
+        <v>1.52</v>
       </c>
       <c r="G7">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="H7">
-        <v>1.52</v>
+        <v>5.9</v>
       </c>
       <c r="I7">
-        <v>0.2</v>
+        <v>0.89</v>
       </c>
       <c r="J7">
-        <v>0.8</v>
+        <v>0.11</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="L7">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="M7">
         <v>1.52</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -903,46 +918,46 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F8">
-        <v>1.33</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>5.35</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>8.699999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="I8">
-        <v>0.93</v>
+        <v>0.32</v>
       </c>
       <c r="J8">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="L8">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="M8">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O8">
         <v>3</v>
@@ -950,46 +965,46 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F9">
-        <v>8.300000000000001</v>
+        <v>1.66</v>
       </c>
       <c r="G9">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>1.34</v>
+        <v>4.75</v>
       </c>
       <c r="I9">
-        <v>0.35</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J9">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="L9">
-        <v>0.65</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M9">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="N9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O9">
         <v>3</v>
@@ -997,46 +1012,46 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F10">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="G10">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="H10">
-        <v>4.65</v>
+        <v>1.4</v>
       </c>
       <c r="I10">
-        <v>0.85</v>
+        <v>0.31</v>
       </c>
       <c r="J10">
-        <v>0.15</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="L10">
-        <v>0.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M10">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -1044,46 +1059,46 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F11">
-        <v>1.43</v>
+        <v>4.7</v>
       </c>
       <c r="G11">
-        <v>5.25</v>
+        <v>4.95</v>
       </c>
       <c r="H11">
-        <v>7.1</v>
+        <v>1.58</v>
       </c>
       <c r="I11">
-        <v>0.82</v>
+        <v>0.33</v>
       </c>
       <c r="J11">
-        <v>0.18</v>
+        <v>0.67</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="L11">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="M11">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="N11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O11">
         <v>3</v>
@@ -1091,46 +1106,46 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F12">
-        <v>1.36</v>
+        <v>6.9</v>
       </c>
       <c r="G12">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="H12">
-        <v>8.1</v>
+        <v>1.44</v>
       </c>
       <c r="I12">
-        <v>0.83</v>
+        <v>0.23</v>
       </c>
       <c r="J12">
-        <v>0.17</v>
+        <v>0.77</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L12">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="M12">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="N12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O12">
         <v>3</v>
@@ -1138,46 +1153,46 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F13">
-        <v>1.28</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G13">
-        <v>5.5</v>
+        <v>5.65</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>1.35</v>
       </c>
       <c r="I13">
-        <v>0.86</v>
+        <v>0.21</v>
       </c>
       <c r="J13">
-        <v>0.14</v>
+        <v>0.79</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L13">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="M13">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="N13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O13">
         <v>3</v>
@@ -1188,43 +1203,43 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F14">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="G14">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="H14">
-        <v>4.75</v>
+        <v>10.5</v>
       </c>
       <c r="I14">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="J14">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L14">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="M14">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="N14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O14">
         <v>3</v>
@@ -1232,46 +1247,46 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F15">
-        <v>1.35</v>
+        <v>1.58</v>
       </c>
       <c r="G15">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="H15">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="I15">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L15">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="M15">
-        <v>1.35</v>
+        <v>1.58</v>
       </c>
       <c r="N15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O15">
         <v>3</v>
@@ -1279,46 +1294,46 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F16">
-        <v>1.25</v>
+        <v>6.1</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>4.85</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>1.52</v>
       </c>
       <c r="I16">
-        <v>0.95</v>
+        <v>0.24</v>
       </c>
       <c r="J16">
-        <v>0.05</v>
+        <v>0.76</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="L16">
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="M16">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="N16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O16">
         <v>3</v>
@@ -1326,46 +1341,46 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>1.55</v>
       </c>
       <c r="G17">
-        <v>6.4</v>
+        <v>4.33</v>
       </c>
       <c r="H17">
-        <v>1.23</v>
+        <v>5.5</v>
       </c>
       <c r="I17">
-        <v>0.24</v>
+        <v>0.83</v>
       </c>
       <c r="J17">
-        <v>0.76</v>
+        <v>0.17</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="L17">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="M17">
-        <v>1.23</v>
+        <v>1.55</v>
       </c>
       <c r="N17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O17">
         <v>3</v>
@@ -1376,43 +1391,43 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F18">
-        <v>1.85</v>
+        <v>1.36</v>
       </c>
       <c r="G18">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="H18">
-        <v>4.1</v>
+        <v>8.5</v>
       </c>
       <c r="I18">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="J18">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L18">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="M18">
-        <v>1.85</v>
+        <v>1.36</v>
       </c>
       <c r="N18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O18">
         <v>3</v>
@@ -1420,46 +1435,46 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F19">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="G19">
-        <v>4.95</v>
+        <v>5.9</v>
       </c>
       <c r="H19">
-        <v>8.300000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I19">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="J19">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="K19" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L19">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="M19">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="N19" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O19">
         <v>3</v>
@@ -1467,46 +1482,46 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F20">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="G20">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="I20">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J20">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L20">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M20">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="N20" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O20">
         <v>3</v>
@@ -1514,48 +1529,142 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F21">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="G21">
-        <v>6.5</v>
+        <v>4.9</v>
       </c>
       <c r="H21">
+        <v>7.8</v>
+      </c>
+      <c r="I21">
+        <v>0.8</v>
+      </c>
+      <c r="J21">
+        <v>0.2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21">
+        <v>0.8</v>
+      </c>
+      <c r="M21">
+        <v>1.39</v>
+      </c>
+      <c r="N21" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="I21">
-        <v>0.9</v>
-      </c>
-      <c r="J21">
-        <v>0.1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21">
-        <v>0.9</v>
-      </c>
-      <c r="M21">
-        <v>1.2</v>
-      </c>
-      <c r="N21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O21">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22">
+        <v>1.38</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>8.5</v>
+      </c>
+      <c r="I22">
+        <v>0.87</v>
+      </c>
+      <c r="J22">
+        <v>0.13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22">
+        <v>0.87</v>
+      </c>
+      <c r="M22">
+        <v>1.38</v>
+      </c>
+      <c r="N22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23">
+        <v>1.3</v>
+      </c>
+      <c r="G23">
+        <v>4.75</v>
+      </c>
+      <c r="H23">
+        <v>9.5</v>
+      </c>
+      <c r="I23">
+        <v>0.92</v>
+      </c>
+      <c r="J23">
+        <v>0.08</v>
+      </c>
+      <c r="K23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23">
+        <v>0.92</v>
+      </c>
+      <c r="M23">
+        <v>1.3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23">
         <v>3</v>
       </c>
     </row>

--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:J1"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,621 @@
           <t>Pred_A</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Winning_team</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Winning_prob</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Winning_bet</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>bet_type</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>bet_type_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NEC Nijmegen</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
         <v>6.5</v>
@@ -553,7 +553,7 @@
         <v>0.91</v>
       </c>
       <c r="M2" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -589,19 +589,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="G3" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="H3" t="n">
         <v>5.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -634,44 +634,44 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">BUNDESLIGA </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Koln</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="G4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>8.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -684,53 +684,53 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.5</v>
+        <v>1.35</v>
       </c>
       <c r="G5" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.33</v>
+        <v>0.93</v>
       </c>
       <c r="J5" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="M5" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -743,53 +743,53 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="J6" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="M6" t="n">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -811,44 +811,44 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t>A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="G7" t="n">
-        <v>6.3</v>
+        <v>4.33</v>
       </c>
       <c r="H7" t="n">
-        <v>9.9</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="M7" t="n">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -870,44 +870,44 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGUE 1 </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.4</v>
+        <v>4.75</v>
       </c>
       <c r="G8" t="n">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="I8" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="J8" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="M8" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -929,44 +929,44 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGUE 1 </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="I9" t="n">
-        <v>0.84</v>
+        <v>0.32</v>
       </c>
       <c r="J9" t="n">
-        <v>0.16</v>
+        <v>0.68</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="M9" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -988,44 +988,44 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1047,44 +1047,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>1.27</v>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
       <c r="H11" t="n">
-        <v>1.45</v>
+        <v>10.5</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="M11" t="n">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1092,6 +1092,183 @@
         </is>
       </c>
       <c r="O11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NEC Nijmegen</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
         <v>3</v>
       </c>
     </row>

--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,11 +507,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -521,39 +521,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -566,11 +566,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -580,39 +580,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.58</v>
+        <v>1.26</v>
       </c>
       <c r="G3" t="n">
-        <v>4.25</v>
+        <v>6.3</v>
       </c>
       <c r="H3" t="n">
-        <v>5.4</v>
+        <v>9.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.58</v>
+        <v>1.26</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -625,53 +625,53 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUNDESLIGA </t>
+          <t xml:space="preserve">LALIGA </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Koln</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.42</v>
+        <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>7.5</v>
+        <v>1.65</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="J4" t="n">
-        <v>0.19</v>
+        <v>0.66</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="M4" t="n">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -684,53 +684,53 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">BUNDESLIGA </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.35</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>4.9</v>
+        <v>4.35</v>
       </c>
       <c r="H5" t="n">
-        <v>9.300000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="I5" t="n">
-        <v>0.93</v>
+        <v>0.16</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="M5" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -743,53 +743,53 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.2</v>
+        <v>6.9</v>
       </c>
       <c r="G6" t="n">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>1.44</v>
       </c>
       <c r="I6" t="n">
-        <v>0.91</v>
+        <v>0.16</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09</v>
+        <v>0.84</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="M6" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -802,53 +802,53 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.62</v>
+        <v>11.5</v>
       </c>
       <c r="G7" t="n">
-        <v>4.33</v>
+        <v>7.3</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>1.21</v>
       </c>
       <c r="I7" t="n">
-        <v>0.84</v>
+        <v>0.18</v>
       </c>
       <c r="J7" t="n">
-        <v>0.16</v>
+        <v>0.82</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="M7" t="n">
-        <v>1.62</v>
+        <v>1.21</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -861,53 +861,53 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.75</v>
+        <v>7.3</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="H8" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="I8" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="J8" t="n">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="M8" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -920,53 +920,53 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
         <v>6</v>
       </c>
-      <c r="G9" t="n">
-        <v>4.5</v>
-      </c>
       <c r="H9" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="I9" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="J9" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="M9" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -983,49 +983,49 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="J10" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="M10" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1038,53 +1038,53 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.27</v>
+        <v>1.78</v>
       </c>
       <c r="G11" t="n">
-        <v>6.7</v>
+        <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>10.5</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>1.27</v>
+        <v>1.78</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1097,11 +1097,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1111,39 +1111,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="G12" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="H12" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="J12" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1156,53 +1156,53 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="G13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H13" t="n">
         <v>5.9</v>
       </c>
-      <c r="H13" t="n">
-        <v>10.5</v>
-      </c>
       <c r="I13" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="J13" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="M13" t="n">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1215,36 +1215,36 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="H14" t="n">
-        <v>4.75</v>
+        <v>5.85</v>
       </c>
       <c r="I14" t="n">
         <v>0.8100000000000001</v>
@@ -1254,14 +1254,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1269,6 +1269,124 @@
         </is>
       </c>
       <c r="O14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
         <v>3</v>
       </c>
     </row>

--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M1"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,393 @@
           <t>Pred_A</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Winning_team</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Winning_prob</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Winning_bet</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Winning_bet_final</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>bet_type</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>bet_type_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Odds_H_X</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -868,10 +868,8 @@
       <c r="P6" t="n">
         <v>1.72</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Odds_H_X</t>
-        </is>
+      <c r="Q6" t="n">
+        <v>1.17</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>

--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,11 +527,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-11-25</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
         <v>1.08</v>
       </c>
       <c r="J2" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="M2" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -598,65 +598,65 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-11-25</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="G3" t="n">
-        <v>5.45</v>
+        <v>5.9</v>
       </c>
       <c r="H3" t="n">
-        <v>8.9</v>
+        <v>11.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="M3" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="P3" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -669,65 +669,65 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-11-25</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LALIGA </t>
+          <t xml:space="preserve">BUNDESLIGA </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="J4" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="M4" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="P4" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -740,65 +740,65 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-11-26</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">LALIGA </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.5</v>
+        <v>1.58</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="H5" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>1.14</v>
       </c>
       <c r="J5" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>1.11</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>0.33</v>
+        <v>0.9</v>
       </c>
       <c r="M5" t="n">
-        <v>0.67</v>
+        <v>0.1</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -811,65 +811,65 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-11-26</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">LALIGA </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="J6" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="M6" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="P6" t="n">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -877,6 +877,290 @@
         </is>
       </c>
       <c r="S6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
         <v>3</v>
       </c>
     </row>

--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,65 +527,65 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="J2" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="M2" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -598,65 +598,65 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.29</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>11.5</v>
+        <v>1.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1.04</v>
+        <v>2.35</v>
       </c>
       <c r="J3" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>1.16</v>
       </c>
       <c r="L3" t="n">
-        <v>0.89</v>
+        <v>0.34</v>
       </c>
       <c r="M3" t="n">
-        <v>0.11</v>
+        <v>0.66</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>0.89</v>
+        <v>0.66</v>
       </c>
       <c r="P3" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -669,65 +669,65 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2023-12-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUNDESLIGA </t>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="G4" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>6.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="J4" t="n">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>2.69</v>
       </c>
       <c r="L4" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="M4" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -740,65 +740,65 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2023-12-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="G5" t="n">
-        <v>3.95</v>
+        <v>4.45</v>
       </c>
       <c r="H5" t="n">
-        <v>5.9</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="K5" t="n">
         <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="P5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -811,59 +811,59 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2023-12-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">BUNDESLIGA </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.36</v>
       </c>
-      <c r="G6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8.699999999999999</v>
-      </c>
       <c r="I6" t="n">
-        <v>1.07</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>1.06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.86</v>
+        <v>0.28</v>
       </c>
       <c r="M6" t="n">
-        <v>0.14</v>
+        <v>0.72</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="P6" t="n">
         <v>1.36</v>
@@ -882,11 +882,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2023-12-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -896,51 +896,51 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
-      </c>
       <c r="O7" t="n">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="P7" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -953,65 +953,65 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-12-03</t>
+          <t>2023-12-10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGUE 1 </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.37</v>
+        <v>7.5</v>
       </c>
       <c r="G8" t="n">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>8.300000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="I8" t="n">
-        <v>1.07</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>1.08</v>
       </c>
       <c r="L8" t="n">
-        <v>0.85</v>
+        <v>0.32</v>
       </c>
       <c r="M8" t="n">
-        <v>0.15</v>
+        <v>0.68</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="P8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1024,65 +1024,65 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-12-03</t>
+          <t>2023-12-10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.33</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>1.63</v>
       </c>
       <c r="I9" t="n">
-        <v>1.06</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>1.18</v>
       </c>
       <c r="L9" t="n">
-        <v>0.92</v>
+        <v>0.31</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>0.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1095,72 +1095,143 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-12-03</t>
+          <t>2023-12-10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">LALIGA </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
-      <c r="G10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.65</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="L11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="S10" t="n">
+      <c r="S11" t="n">
         <v>3</v>
       </c>
     </row>

--- a/new_tips.xlsx
+++ b/new_tips.xlsx
@@ -527,65 +527,65 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.23</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>6.4</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="M2" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="P2" t="n">
-        <v>1.23</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -598,65 +598,65 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2023-12-16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">LIGUE 1 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.35</v>
+        <v>1.26</v>
       </c>
       <c r="J3" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="K3" t="n">
-        <v>1.16</v>
+        <v>1.98</v>
       </c>
       <c r="L3" t="n">
-        <v>0.34</v>
+        <v>0.82</v>
       </c>
       <c r="M3" t="n">
-        <v>0.66</v>
+        <v>0.18</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>0.66</v>
+        <v>0.82</v>
       </c>
       <c r="P3" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -669,45 +669,45 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-12-09</t>
+          <t>2023-12-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t xml:space="preserve">BUNDESLIGA </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="G4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="J4" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="L4" t="n">
         <v>0.85</v>
@@ -717,17 +717,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="O4" t="n">
         <v>0.85</v>
       </c>
       <c r="P4" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -740,65 +740,65 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-12-09</t>
+          <t>2023-12-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
+        <v>1.32</v>
       </c>
       <c r="G5" t="n">
-        <v>4.45</v>
+        <v>5.4</v>
       </c>
       <c r="H5" t="n">
-        <v>5.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="J5" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="M5" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="P5" t="n">
-        <v>1.62</v>
+        <v>1.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.32</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -811,65 +811,65 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-12-09</t>
+          <t>2023-12-17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUNDESLIGA </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>1.33</v>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.36</v>
+        <v>9.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>1.05</v>
       </c>
       <c r="J6" t="n">
         <v>1.12</v>
       </c>
       <c r="K6" t="n">
-        <v>1.06</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>0.28</v>
+        <v>0.85</v>
       </c>
       <c r="M6" t="n">
-        <v>0.72</v>
+        <v>0.15</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="P6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -882,65 +882,65 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-12-09</t>
+          <t>2023-12-17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="G7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -953,65 +953,65 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-12-10</t>
+          <t>2023-12-17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">BUNDESLIGA </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.5</v>
+        <v>1.42</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.38</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="J8" t="n">
         <v>1.12</v>
       </c>
       <c r="K8" t="n">
-        <v>1.08</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>0.32</v>
+        <v>0.9</v>
       </c>
       <c r="M8" t="n">
-        <v>0.68</v>
+        <v>0.1</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="P8" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1024,65 +1024,65 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-12-10</t>
+          <t>2023-12-17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>1.47</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="H9" t="n">
-        <v>1.63</v>
+        <v>6.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>1.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="K9" t="n">
-        <v>1.18</v>
+        <v>2.7</v>
       </c>
       <c r="L9" t="n">
-        <v>0.31</v>
+        <v>0.85</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="P9" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-12-10</t>
+          <t>2023-12-17</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">LALIGA </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.22</v>
+        <v>12.5</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>1.23</v>
       </c>
       <c r="I10" t="n">
-        <v>1.08</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.33</v>
+        <v>1.09</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>1.03</v>
       </c>
       <c r="L10" t="n">
-        <v>0.88</v>
+        <v>0.28</v>
       </c>
       <c r="M10" t="n">
-        <v>0.12</v>
+        <v>0.72</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
       <c r="P10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1166,65 +1166,65 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-12-10</t>
+          <t>2023-12-17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">LALIGA </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="G11" t="n">
-        <v>4.75</v>
+        <v>5.85</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="J11" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.65</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="P11" t="n">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
